--- a/biology/Médecine/Paragonimus_kellicotti/Paragonimus_kellicotti.xlsx
+++ b/biology/Médecine/Paragonimus_kellicotti/Paragonimus_kellicotti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Douve américaine du poumon
 Paragonimus kellicotti, communément appelé la Douve américaine du poumon, est une espèce de vers plats de la famille des Paragonimidae. Il s'agit d'un parasite du Vison et d'autres animaux, et qui provoque chez l'Homme la distomatose pulmonaire du Nouveau-Monde.
